--- a/Rawdata/tor.aktivitetlyor.xlsx
+++ b/Rawdata/tor.aktivitetlyor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="940" windowWidth="25040" windowHeight="13620" xr2:uid="{E222C274-07D2-064E-A1B4-4F2F467E459B}"/>
+    <workbookView xWindow="1340" yWindow="1560" windowWidth="10000" windowHeight="13620" xr2:uid="{E222C274-07D2-064E-A1B4-4F2F467E459B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="19">
   <si>
     <t>Lya</t>
   </si>
@@ -32,31 +32,16 @@
     <t>år</t>
   </si>
   <si>
-    <t>reproduktion</t>
-  </si>
-  <si>
     <t>zz020</t>
   </si>
   <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>aktiv vår</t>
-  </si>
-  <si>
     <t>zz104</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
   <si>
     <t>ingen data</t>
   </si>
   <si>
     <t>zz042</t>
-  </si>
-  <si>
-    <t>ja</t>
   </si>
   <si>
     <t>zz033</t>
@@ -87,6 +72,15 @@
   </si>
   <si>
     <t>zz061</t>
+  </si>
+  <si>
+    <t>reproduktion_antal_kullar</t>
+  </si>
+  <si>
+    <t>aktiv_vår</t>
+  </si>
+  <si>
+    <t>ingen föryngring registrerad på rovbase</t>
   </si>
 </sst>
 </file>
@@ -441,8 +435,8 @@
   <dimension ref="A1:E210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D210" sqref="D210"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,358 +449,448 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>2000</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2001</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2002</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2003</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2004</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>2005</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>2006</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>2007</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2008</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>2009</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>2010</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2011</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>2012</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>2013</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>2014</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>2016</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>2017</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>2018</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>2001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>2002</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <v>2003</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25">
         <v>2004</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26">
         <v>2005</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27">
         <v>2006</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <v>2007</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>2008</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30">
         <v>2009</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31">
         <v>2010</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32">
         <v>2011</v>
       </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33">
         <v>2012</v>
       </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B34">
         <v>2013</v>
       </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B35">
         <v>2014</v>
       </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B36">
         <v>2015</v>
       </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37">
         <v>2016</v>
       </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B38">
         <v>2017</v>
       </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39">
         <v>2018</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
+      <c r="C39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>2000</v>
@@ -814,175 +898,214 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <v>2001</v>
       </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>2002</v>
       </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>2003</v>
       </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>2004</v>
       </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <v>2005</v>
       </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>2006</v>
       </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>2007</v>
       </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>2008</v>
       </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <v>2009</v>
       </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B50">
         <v>2010</v>
       </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B51">
         <v>2011</v>
       </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B52">
         <v>2012</v>
       </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>2013</v>
       </c>
-      <c r="D53" t="s">
-        <v>4</v>
+      <c r="D53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>2014</v>
       </c>
-      <c r="D54" t="s">
-        <v>4</v>
+      <c r="D54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B55">
         <v>2015</v>
       </c>
-      <c r="C55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <v>2016</v>
       </c>
-      <c r="C56" t="s">
-        <v>4</v>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B57">
         <v>2017</v>
       </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B58">
         <v>2018</v>
       </c>
-      <c r="C58" t="s">
-        <v>4</v>
+      <c r="C58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B59">
         <v>2000</v>
@@ -990,7 +1113,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B60">
         <v>2001</v>
@@ -998,7 +1121,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B61">
         <v>2002</v>
@@ -1006,7 +1129,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B62">
         <v>2003</v>
@@ -1014,7 +1137,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B63">
         <v>2004</v>
@@ -1022,121 +1145,133 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B64">
         <v>2005</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B65">
         <v>2006</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B66">
         <v>2007</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B67">
         <v>2008</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B68">
         <v>2009</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B69">
         <v>2010</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B70">
         <v>2011</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B71">
         <v>2012</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B72">
         <v>2013</v>
       </c>
-      <c r="D72" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B73">
         <v>2014</v>
       </c>
-      <c r="D73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B74">
         <v>2015</v>
       </c>
-      <c r="C74" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B75">
         <v>2016</v>
       </c>
-      <c r="C75" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B76">
         <v>2017</v>
@@ -1144,40 +1279,40 @@
       <c r="C76" t="s">
         <v>4</v>
       </c>
-      <c r="D76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B77">
         <v>2018</v>
       </c>
-      <c r="C77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B78">
         <v>2000</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B79">
         <v>2001</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B80">
         <v>2002</v>
@@ -1185,7 +1320,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B81">
         <v>2003</v>
@@ -1193,7 +1328,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B82">
         <v>2004</v>
@@ -1201,7 +1336,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B83">
         <v>2005</v>
@@ -1209,7 +1344,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B84">
         <v>2006</v>
@@ -1217,7 +1352,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B85">
         <v>2007</v>
@@ -1225,7 +1360,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B86">
         <v>2008</v>
@@ -1233,7 +1368,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B87">
         <v>2009</v>
@@ -1241,7 +1376,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B88">
         <v>2010</v>
@@ -1249,7 +1384,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B89">
         <v>2011</v>
@@ -1257,7 +1392,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B90">
         <v>2012</v>
@@ -1265,7 +1400,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B91">
         <v>2013</v>
@@ -1273,7 +1408,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B92">
         <v>2014</v>
@@ -1281,54 +1416,51 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B93">
         <v>2015</v>
       </c>
-      <c r="C93" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
+      <c r="D93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B94">
         <v>2016</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B95">
         <v>2017</v>
       </c>
-      <c r="D95" t="s">
-        <v>7</v>
+      <c r="D95">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B96">
         <v>2018</v>
       </c>
-      <c r="C96" t="s">
-        <v>7</v>
+      <c r="C96">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B97">
         <v>2000</v>
@@ -1336,7 +1468,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B98">
         <v>2001</v>
@@ -1344,7 +1476,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B99">
         <v>2002</v>
@@ -1352,7 +1484,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B100">
         <v>2003</v>
@@ -1360,7 +1492,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B101">
         <v>2004</v>
@@ -1368,7 +1500,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B102">
         <v>2005</v>
@@ -1376,7 +1508,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B103">
         <v>2006</v>
@@ -1384,7 +1516,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B104">
         <v>2007</v>
@@ -1392,7 +1524,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B105">
         <v>2008</v>
@@ -1400,7 +1532,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B106">
         <v>2009</v>
@@ -1408,7 +1540,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B107">
         <v>2010</v>
@@ -1416,7 +1548,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B108">
         <v>2011</v>
@@ -1424,7 +1556,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B109">
         <v>2012</v>
@@ -1432,7 +1564,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B110">
         <v>2013</v>
@@ -1440,65 +1572,68 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B111">
         <v>2014</v>
       </c>
-      <c r="D111" t="s">
-        <v>4</v>
+      <c r="D111">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B112">
         <v>2015</v>
       </c>
-      <c r="D112" t="s">
-        <v>4</v>
+      <c r="D112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B113">
         <v>2016</v>
       </c>
-      <c r="D113" t="s">
-        <v>7</v>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B114">
         <v>2017</v>
       </c>
-      <c r="D114" t="s">
-        <v>7</v>
+      <c r="D114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B115">
         <v>2018</v>
       </c>
-      <c r="C115" t="s">
-        <v>7</v>
+      <c r="C115">
+        <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B116">
         <v>2000</v>
@@ -1506,7 +1641,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B117">
         <v>2001</v>
@@ -1514,7 +1649,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B118">
         <v>2002</v>
@@ -1522,7 +1657,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B119">
         <v>2003</v>
@@ -1530,7 +1665,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B120">
         <v>2004</v>
@@ -1538,7 +1673,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B121">
         <v>2005</v>
@@ -1546,7 +1681,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B122">
         <v>2006</v>
@@ -1554,7 +1689,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B123">
         <v>2007</v>
@@ -1562,7 +1697,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B124">
         <v>2008</v>
@@ -1570,7 +1705,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B125">
         <v>2009</v>
@@ -1578,7 +1713,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B126">
         <v>2010</v>
@@ -1586,7 +1721,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B127">
         <v>2011</v>
@@ -1594,29 +1729,23 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B128">
         <v>2012</v>
       </c>
-      <c r="D128" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B129">
         <v>2013</v>
       </c>
-      <c r="D129" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B130">
         <v>2014</v>
@@ -1624,54 +1753,51 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B131">
         <v>2015</v>
       </c>
-      <c r="C131" t="s">
-        <v>4</v>
-      </c>
-      <c r="D131" t="s">
-        <v>4</v>
+      <c r="D131">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B132">
         <v>2016</v>
       </c>
       <c r="D132" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B133">
         <v>2017</v>
       </c>
-      <c r="D133" t="s">
-        <v>4</v>
+      <c r="D133">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B134">
         <v>2018</v>
       </c>
-      <c r="C134" t="s">
-        <v>4</v>
+      <c r="C134">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B135">
         <v>2000</v>
@@ -1679,7 +1805,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B136">
         <v>2001</v>
@@ -1687,7 +1813,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B137">
         <v>2002</v>
@@ -1695,7 +1821,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B138">
         <v>2003</v>
@@ -1703,7 +1829,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B139">
         <v>2004</v>
@@ -1711,7 +1837,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B140">
         <v>2005</v>
@@ -1719,7 +1845,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B141">
         <v>2006</v>
@@ -1727,7 +1853,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B142">
         <v>2007</v>
@@ -1735,7 +1861,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B143">
         <v>2008</v>
@@ -1743,7 +1869,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B144">
         <v>2009</v>
@@ -1751,7 +1877,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B145">
         <v>2010</v>
@@ -1759,7 +1885,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B146">
         <v>2011</v>
@@ -1767,7 +1893,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B147">
         <v>2012</v>
@@ -1775,7 +1901,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B148">
         <v>2013</v>
@@ -1783,7 +1909,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B149">
         <v>2014</v>
@@ -1791,51 +1917,51 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B150">
         <v>2015</v>
       </c>
-      <c r="D150" t="s">
-        <v>4</v>
+      <c r="D150">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B151">
         <v>2016</v>
       </c>
-      <c r="D151" t="s">
-        <v>7</v>
+      <c r="D151">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B152">
         <v>2017</v>
       </c>
-      <c r="D152" t="s">
-        <v>7</v>
+      <c r="D152">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B153">
         <v>2018</v>
       </c>
-      <c r="C153" t="s">
-        <v>7</v>
+      <c r="C153">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B154">
         <v>2000</v>
@@ -1843,7 +1969,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B155">
         <v>2001</v>
@@ -1851,7 +1977,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B156">
         <v>2002</v>
@@ -1859,7 +1985,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B157">
         <v>2003</v>
@@ -1867,7 +1993,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B158">
         <v>2004</v>
@@ -1875,7 +2001,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B159">
         <v>2005</v>
@@ -1883,147 +2009,150 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B160">
         <v>2006</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B161">
         <v>2007</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B162">
         <v>2008</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B163">
         <v>2009</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B164">
         <v>2010</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B165">
         <v>2011</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B166">
         <v>2012</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B167">
         <v>2013</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B168">
         <v>2014</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B169">
         <v>2015</v>
       </c>
-      <c r="D169" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B170">
         <v>2016</v>
       </c>
-      <c r="D170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B171">
         <v>2017</v>
       </c>
-      <c r="D171" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B172">
         <v>2018</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>19</v>
       </c>
       <c r="B173">
         <v>2000</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B174">
         <v>2001</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B175">
         <v>2002</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B176">
         <v>2003</v>
@@ -2031,7 +2160,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B177">
         <v>2004</v>
@@ -2039,7 +2168,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B178">
         <v>2005</v>
@@ -2047,7 +2176,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B179">
         <v>2006</v>
@@ -2055,7 +2184,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B180">
         <v>2007</v>
@@ -2063,7 +2192,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B181">
         <v>2008</v>
@@ -2071,7 +2200,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B182">
         <v>2009</v>
@@ -2079,7 +2208,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B183">
         <v>2010</v>
@@ -2087,7 +2216,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B184">
         <v>2011</v>
@@ -2095,7 +2224,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B185">
         <v>2012</v>
@@ -2103,7 +2232,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B186">
         <v>2013</v>
@@ -2111,7 +2240,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B187">
         <v>2014</v>
@@ -2119,51 +2248,54 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B188">
         <v>2015</v>
       </c>
-      <c r="D188" t="s">
-        <v>7</v>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B189">
         <v>2016</v>
       </c>
-      <c r="D189" t="s">
-        <v>7</v>
+      <c r="D189">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B190">
         <v>2017</v>
       </c>
-      <c r="D190" t="s">
-        <v>7</v>
+      <c r="D190">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B191">
         <v>2018</v>
       </c>
-      <c r="C191" t="s">
-        <v>7</v>
+      <c r="C191">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B192">
         <v>2000</v>
@@ -2171,7 +2303,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B193">
         <v>2001</v>
@@ -2179,7 +2311,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B194">
         <v>2002</v>
@@ -2187,7 +2319,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B195">
         <v>2003</v>
@@ -2195,7 +2327,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B196">
         <v>2004</v>
@@ -2203,7 +2335,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B197">
         <v>2005</v>
@@ -2211,7 +2343,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B198">
         <v>2006</v>
@@ -2219,7 +2351,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B199">
         <v>2007</v>
@@ -2227,7 +2359,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B200">
         <v>2008</v>
@@ -2235,7 +2367,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B201">
         <v>2009</v>
@@ -2243,7 +2375,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B202">
         <v>2010</v>
@@ -2251,7 +2383,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B203">
         <v>2011</v>
@@ -2259,7 +2391,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B204">
         <v>2012</v>
@@ -2267,7 +2399,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B205">
         <v>2013</v>
@@ -2275,7 +2407,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B206">
         <v>2014</v>
@@ -2283,49 +2415,61 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B207">
         <v>2015</v>
       </c>
-      <c r="D207" t="s">
-        <v>7</v>
+      <c r="C207" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B208">
         <v>2016</v>
       </c>
+      <c r="C208" t="s">
+        <v>4</v>
+      </c>
       <c r="D208" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B209">
         <v>2017</v>
       </c>
-      <c r="D209" t="s">
-        <v>7</v>
+      <c r="C209" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B210">
         <v>2018</v>
       </c>
-      <c r="C210" t="s">
-        <v>7</v>
+      <c r="C210">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E210">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
--- a/Rawdata/tor.aktivitetlyor.xlsx
+++ b/Rawdata/tor.aktivitetlyor.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1560" windowWidth="10000" windowHeight="13620" xr2:uid="{E222C274-07D2-064E-A1B4-4F2F467E459B}"/>
+    <workbookView xWindow="1340" yWindow="920" windowWidth="17120" windowHeight="13620" xr2:uid="{E222C274-07D2-064E-A1B4-4F2F467E459B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$2:$E$210</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -436,7 +439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,112 +474,82 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2001</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>2002</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2003</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>2004</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2005</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>2006</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>2007</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>2008</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>2009</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>2010</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -584,255 +557,204 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>2014</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>2015</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>2016</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>2017</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>2018</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>2001</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
         <v>2002</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>2003</v>
-      </c>
       <c r="D24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>2006</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>2007</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>2008</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>2009</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>2010</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>2011</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>2012</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>2013</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -840,123 +762,93 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>2015</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+        <v>2003</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37">
-        <v>2016</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
+        <v>2003</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>2017</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <v>2018</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B40">
-        <v>2000</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>2001</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>2002</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>2003</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>2004</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>2005</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B46">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -964,10 +856,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -978,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="B48">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -986,129 +878,99 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>2009</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B50">
-        <v>2010</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>2011</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B52">
-        <v>2012</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B53">
-        <v>2013</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>2014</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B55">
-        <v>2015</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>2016</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>2017</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+        <v>2005</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>2018</v>
-      </c>
-      <c r="C58">
+        <v>2005</v>
+      </c>
+      <c r="D58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>2000</v>
+        <v>2005</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1116,222 +978,204 @@
         <v>5</v>
       </c>
       <c r="B60">
-        <v>2001</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B61">
-        <v>2002</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B62">
-        <v>2003</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B64">
         <v>2005</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B65">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68">
         <v>2006</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66">
-        <v>2007</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67">
-        <v>2008</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B69">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B70">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>5</v>
       </c>
       <c r="B71">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B72">
-        <v>2013</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B73">
-        <v>2014</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B74">
-        <v>2015</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B75">
-        <v>2016</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B76">
-        <v>2017</v>
-      </c>
-      <c r="C76" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B77">
-        <v>2018</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B78">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B79">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2007</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B80">
-        <v>2002</v>
+        <v>2007</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B81">
-        <v>2003</v>
+        <v>2007</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B82">
-        <v>2004</v>
+        <v>2007</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1339,20 +1183,20 @@
         <v>15</v>
       </c>
       <c r="B83">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B84">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B85">
         <v>2007</v>
@@ -1360,69 +1204,78 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B87">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B88">
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B89">
-        <v>2011</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B90">
-        <v>2012</v>
+        <v>2008</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B91">
-        <v>2013</v>
+        <v>2008</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B92">
-        <v>2014</v>
+        <v>2008</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B93">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1430,104 +1283,104 @@
         <v>15</v>
       </c>
       <c r="B94">
-        <v>2016</v>
-      </c>
-      <c r="D94" t="s">
-        <v>4</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B95">
-        <v>2017</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B96">
-        <v>2018</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B97">
-        <v>2000</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B98">
-        <v>2001</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B99">
-        <v>2002</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B100">
-        <v>2003</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B101">
-        <v>2004</v>
+        <v>2009</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B102">
-        <v>2005</v>
+        <v>2009</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B103">
-        <v>2006</v>
+        <v>2009</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B104">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B105">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -1540,199 +1393,199 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B107">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B108">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B109">
-        <v>2012</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B110">
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B111">
-        <v>2014</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112">
+        <v>2010</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <v>2010</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <v>2010</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>2010</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>8</v>
       </c>
-      <c r="B112">
-        <v>2015</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113">
-        <v>2016</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114">
-        <v>2017</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115">
-        <v>2018</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>13</v>
-      </c>
       <c r="B117">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>13</v>
       </c>
       <c r="B118">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B119">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B120">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B121">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B122">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B123">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2011</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B124">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2011</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B125">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2011</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B126">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B127">
         <v>2011</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B128">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -1740,107 +1593,104 @@
         <v>13</v>
       </c>
       <c r="B129">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B130">
-        <v>2014</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B131">
-        <v>2015</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B132">
-        <v>2016</v>
-      </c>
-      <c r="D132" t="s">
-        <v>4</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B133">
-        <v>2017</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B134">
-        <v>2018</v>
-      </c>
-      <c r="C134">
+        <v>2012</v>
+      </c>
+      <c r="D134">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B135">
-        <v>2000</v>
+        <v>2012</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B136">
-        <v>2001</v>
+        <v>2012</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B137">
-        <v>2002</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B138">
-        <v>2003</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B139">
-        <v>2004</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B140">
-        <v>2005</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -1848,93 +1698,99 @@
         <v>14</v>
       </c>
       <c r="B141">
-        <v>2006</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B142">
-        <v>2007</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B143">
-        <v>2008</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B144">
-        <v>2009</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B145">
-        <v>2010</v>
+        <v>2013</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B146">
-        <v>2011</v>
+        <v>2013</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B147">
-        <v>2012</v>
+        <v>2013</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B148">
         <v>2013</v>
       </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B149">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B150">
-        <v>2015</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B151">
-        <v>2016</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -1942,520 +1798,667 @@
         <v>14</v>
       </c>
       <c r="B152">
-        <v>2017</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B153">
-        <v>2018</v>
-      </c>
-      <c r="C153">
-        <v>0</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B154">
-        <v>2000</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B155">
-        <v>2001</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B156">
-        <v>2002</v>
+        <v>2014</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B157">
-        <v>2003</v>
+        <v>2014</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B158">
-        <v>2004</v>
+        <v>2014</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B159">
-        <v>2005</v>
+        <v>2014</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B160">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B161">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B162">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B163">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>12</v>
       </c>
       <c r="B164">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B165">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B166">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B167">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2015</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B168">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2015</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B169">
         <v>2015</v>
       </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
       <c r="D169">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170">
+        <v>2015</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171">
+        <v>2015</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172">
+        <v>2015</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173">
+        <v>2015</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174">
+        <v>2015</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>12</v>
       </c>
-      <c r="B170">
-        <v>2016</v>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="E170" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>12</v>
-      </c>
-      <c r="B171">
-        <v>2017</v>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>12</v>
-      </c>
-      <c r="B172">
-        <v>2018</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>7</v>
-      </c>
-      <c r="B173">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>7</v>
-      </c>
-      <c r="B174">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>7</v>
-      </c>
       <c r="B175">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2015</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>7</v>
       </c>
       <c r="B176">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2015</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B177">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2015</v>
+      </c>
+      <c r="C177" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B178">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B179">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B180">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B181">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B182">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B183">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B184">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+      <c r="D184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B185">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B186">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>7</v>
       </c>
       <c r="B187">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B188">
-        <v>2015</v>
-      </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4</v>
+      </c>
+      <c r="D188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B189">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B190">
         <v>2017</v>
       </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
       <c r="D190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191">
+        <v>2017</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192">
+        <v>2017</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193">
+        <v>2017</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194">
+        <v>2017</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195">
+        <v>2017</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196">
+        <v>2017</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197">
+        <v>2017</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>7</v>
       </c>
-      <c r="B191">
-        <v>2018</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>3</v>
-      </c>
-      <c r="B192">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>3</v>
-      </c>
-      <c r="B193">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>3</v>
-      </c>
-      <c r="B194">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>3</v>
-      </c>
-      <c r="B195">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>3</v>
-      </c>
-      <c r="B196">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>3</v>
-      </c>
-      <c r="B197">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>3</v>
-      </c>
       <c r="B198">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2017</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>3</v>
       </c>
       <c r="B199">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2017</v>
+      </c>
+      <c r="C199" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B200">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2018</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B201">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2018</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B202">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2018</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B203">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2018</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B204">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2018</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B205">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2018</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="E205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B206">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2018</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B207">
-        <v>2015</v>
-      </c>
-      <c r="C207" t="s">
-        <v>4</v>
-      </c>
-      <c r="D207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2018</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B208">
-        <v>2016</v>
-      </c>
-      <c r="C208" t="s">
-        <v>4</v>
-      </c>
-      <c r="D208" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2018</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B209">
-        <v>2017</v>
-      </c>
-      <c r="C209" t="s">
-        <v>4</v>
-      </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2018</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -2467,6 +2470,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:E210" xr:uid="{6A537F2D-A452-0F47-ABAB-A0DE377B8413}">
+    <sortState ref="A3:E210">
+      <sortCondition ref="B2:B210"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:E210">
     <sortCondition ref="A2"/>
   </sortState>
